--- a/Documents/Design_Algorithm.xlsx
+++ b/Documents/Design_Algorithm.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/ShurikenZan/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohmiwing/Documents/UnityProjects/Personal/２D/SujiShuriken/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12C25CA3-982E-8946-8F2A-BB623B1AF50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA58F4B-3EE4-6848-8E1D-8AC997AA1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="3200" windowWidth="27500" windowHeight="16440" xr2:uid="{3A8639CB-A0BE-FD49-BD40-B3C0E6DC45F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20740" activeTab="1" xr2:uid="{3A8639CB-A0BE-FD49-BD40-B3C0E6DC45F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="実装(手裏剣にダメージを与える)PAD" sheetId="1" r:id="rId1"/>
+    <sheet name="実装(手裏剣にダメージを与える)PAD (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="実装(ロングタップしたら手裏剣をD&amp;Dで移動)PAD" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>実装(手裏剣にダメージを与える)PAD</t>
   </si>
@@ -158,6 +159,42 @@
     <t>以内にある</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">イナイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分手裏剣をドロップした座標に設定</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジブンンシュリケｎ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ザヒョウ </t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">セッテイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分手裏剣を1秒以上タッチし続けた？</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジブｎ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">シュリケｎ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">イジョウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分手裏剣をタッチ座標に設定</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">ジブンシュリケｎ </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">セッテイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -322,13 +359,37 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,47 +408,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -702,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C17F5-21AB-2647-8A16-ABDBCB96DF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3B82CF-C382-F24D-AD0E-7A5000E809EB}">
   <dimension ref="B1:AM30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="13.75" customHeight="1"/>
@@ -720,190 +769,190 @@
       </c>
     </row>
     <row r="3" spans="2:39" ht="13.75" customHeight="1">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="2:39" ht="13.75" customHeight="1">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E5" s="8"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
       <c r="N6" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
       <c r="AA6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="2" t="s">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="4"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
     </row>
     <row r="8" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="14"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="14"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="7"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="6"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="6"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
     </row>
     <row r="9" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="18"/>
-      <c r="AE9" s="9"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="8"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="8"/>
+      <c r="AE9" s="3"/>
     </row>
     <row r="10" spans="2:39" ht="13.75" customHeight="1">
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="9"/>
       <c r="N10" t="s">
         <v>6</v>
       </c>
-      <c r="S10" s="19"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="9"/>
       <c r="AA10" t="s">
         <v>6</v>
       </c>
-      <c r="AE10" s="9"/>
+      <c r="AE10" s="3"/>
     </row>
     <row r="11" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E11" s="9"/>
-      <c r="AF11" s="2" t="s">
+      <c r="E11" s="3"/>
+      <c r="AF11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="4"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="12"/>
     </row>
     <row r="12" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E12" s="9"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="7"/>
+      <c r="E12" s="3"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="15"/>
     </row>
     <row r="13" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E13" s="9"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:39" ht="13.75" customHeight="1">
-      <c r="E14" s="9"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="18" spans="18:19" ht="13.75" customHeight="1">
       <c r="S18" t="s">
@@ -969,4 +1018,260 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9C17F5-21AB-2647-8A16-ABDBCB96DF3A}">
+  <dimension ref="B1:AM41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="13.75" customHeight="1"/>
+  <cols>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:39" ht="49" customHeight="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:39" ht="13.75" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="2:39" ht="13.75" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:39" ht="13.75" customHeight="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:39" ht="13.75" customHeight="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" ht="13.75" customHeight="1">
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="12"/>
+    </row>
+    <row r="8" spans="2:39" ht="13.75" customHeight="1">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="6"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="6"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="15"/>
+    </row>
+    <row r="9" spans="2:39" ht="13.75" customHeight="1">
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="8"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="8"/>
+      <c r="AE9" s="3"/>
+    </row>
+    <row r="10" spans="2:39" ht="13.75" customHeight="1">
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="9"/>
+      <c r="N10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="3"/>
+    </row>
+    <row r="11" spans="2:39" ht="13.75" customHeight="1">
+      <c r="E11" s="3"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="12"/>
+    </row>
+    <row r="12" spans="2:39" ht="13.75" customHeight="1">
+      <c r="E12" s="3"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="15"/>
+    </row>
+    <row r="13" spans="2:39" ht="13.75" customHeight="1">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="2:39" ht="13.75" customHeight="1">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="38" spans="2:9" ht="13.75" customHeight="1">
+      <c r="B38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="2:9" ht="13.75" customHeight="1">
+      <c r="B39" s="18"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" spans="2:9" ht="13.75" customHeight="1">
+      <c r="B40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="2:9" ht="13.75" customHeight="1">
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B38:I41"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="F7:K10"/>
+    <mergeCell ref="S7:X10"/>
+    <mergeCell ref="AF7:AM8"/>
+    <mergeCell ref="AF11:AM12"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>